--- a/tests/GR分类点描述-BJ.xlsx
+++ b/tests/GR分类点描述-BJ.xlsx
@@ -75,7 +75,7 @@
     <t>风力发电装备制造</t>
   </si>
   <si>
-    <t>风力发电机、风轮叶片、风力发电机轴承、风力发电机电缆、风力发电机变速箱、风力发电机塔筒、风电场、风力发电机零件、常规陆塔、大直径分片式陆塔、低风速柔性高塔、海塔、单桩、群桩、导管架、海上升压站、风力发电主机舱</t>
+    <t>风力发电机、风轮叶片、风力发电机轴承、风力发电机电缆、风力发电机变速箱、风力发电机塔筒、风力发电机零件、常规陆塔、大直径分片式陆塔、低风速柔性高塔、海塔、单桩、群桩、导管架、海上升压站、风力发电主机舱</t>
   </si>
   <si>
     <t>陆上、海上风力发电机组，3 兆瓦及以上高原型、低温型、低风速风力发电机组配套的发电机、风轮叶片、轴承、电缆、变速箱、塔筒等关键零部件，以及风电场相关系统与装备的制造及贸易活动。</t>
